--- a/data/Stationsnamen_Kategorie.xlsx
+++ b/data/Stationsnamen_Kategorie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lochmannm\Documents\GitHub\Antikor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B94072-A5BB-4893-9E65-8ADF82D7BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8651A8A-C10B-45D9-A320-A9F8FBA29F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1980" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>Station</t>
   </si>
   <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
     <t>Alsfeld II</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>Schlangenbad-Wambach</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,7 +714,7 @@
         <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -727,7 +727,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>

--- a/data/Stationsnamen_Kategorie.xlsx
+++ b/data/Stationsnamen_Kategorie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lochmannm\Documents\GitHub\Antikor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8651A8A-C10B-45D9-A320-A9F8FBA29F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F224E95-0BC2-45CE-9FE0-C1A96C1C6FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1980" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="119">
   <si>
     <t>Alsfeld I</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Vorort</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1338,7 +1341,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1498,7 +1501,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
